--- a/Abyari/App_Data/RadUploadTemp/1495206543186Copy of ليست 36 صنف.xlsx
+++ b/Abyari/App_Data/RadUploadTemp/1495206543186Copy of ليست 36 صنف.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -441,15 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -486,56 +477,6 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -552,10 +493,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -566,7 +507,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,52 +547,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -971,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -992,25 +909,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -1019,75 +936,97 @@
       <c r="I1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" thickTop="1">
-      <c r="A3" s="33" t="s">
+    <row r="2" spans="1:12" ht="18">
+      <c r="A2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B2" s="23">
         <v>1249899222</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C2" s="5">
         <v>110212085</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F2" s="1">
         <v>50</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G2" s="9">
         <v>2725</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
         <v>485</v>
       </c>
+      <c r="J2" s="8">
+        <v>36241436</v>
+      </c>
+      <c r="K2" s="8">
+        <v>31</v>
+      </c>
+      <c r="L2" s="8">
+        <v>9131044588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18">
+      <c r="A3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2294563433</v>
+      </c>
+      <c r="C3" s="6">
+        <v>110212643</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="G3" s="10">
+        <v>110.52</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13">
+        <v>202.45000000000005</v>
+      </c>
       <c r="J3" s="8">
-        <v>36241436</v>
+        <v>53667275</v>
       </c>
       <c r="K3" s="8">
         <v>31</v>
       </c>
       <c r="L3" s="8">
-        <v>9131044588</v>
+        <v>9130265284</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18">
-      <c r="A4" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="32">
-        <v>2294563433</v>
+      <c r="A4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1209610825</v>
       </c>
       <c r="C4" s="6">
-        <v>110212643</v>
+        <v>110212299</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -1096,34 +1035,34 @@
         <v>3</v>
       </c>
       <c r="F4" s="4">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="G4" s="10">
-        <v>110.52</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13">
-        <v>202.45000000000005</v>
+        <v>141.69999999999999</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14">
+        <v>286.3</v>
       </c>
       <c r="J4" s="8">
-        <v>53667275</v>
+        <v>53664814</v>
       </c>
       <c r="K4" s="8">
         <v>31</v>
       </c>
       <c r="L4" s="8">
-        <v>9130265284</v>
+        <v>9139222847</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18">
-      <c r="A5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1209610825</v>
+      <c r="A5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2290925993</v>
       </c>
       <c r="C5" s="6">
-        <v>110212299</v>
+        <v>110212162</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -1132,34 +1071,30 @@
         <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="G5" s="10">
-        <v>141.69999999999999</v>
+        <v>396.76</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14">
-        <v>286.3</v>
-      </c>
-      <c r="J5" s="8">
-        <v>53664814</v>
-      </c>
-      <c r="K5" s="8">
-        <v>31</v>
-      </c>
+        <v>331.24</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="8">
-        <v>9139222847</v>
+        <v>9133018489</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18">
-      <c r="A6" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="32">
-        <v>2290925993</v>
+      <c r="A6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="24">
+        <v>5129662954</v>
       </c>
       <c r="C6" s="6">
-        <v>110212162</v>
+        <v>110212686</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -1168,138 +1103,142 @@
         <v>3</v>
       </c>
       <c r="F6" s="4">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="G6" s="10">
-        <v>396.76</v>
+        <v>150.41999999999999</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14">
-        <v>331.24</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+        <v>27.580000000000013</v>
+      </c>
+      <c r="J6" s="8">
+        <v>53332481</v>
+      </c>
+      <c r="K6" s="8">
+        <v>31</v>
+      </c>
       <c r="L6" s="8">
-        <v>9133018489</v>
+        <v>9132759492</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18">
-      <c r="A7" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="32">
-        <v>5129662954</v>
+      <c r="A7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="24">
+        <v>1291892117</v>
       </c>
       <c r="C7" s="6">
-        <v>110212686</v>
+        <v>110212190</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>1.2</v>
+        <v>3.86</v>
       </c>
       <c r="G7" s="10">
-        <v>150.41999999999999</v>
+        <v>134.63999999999999</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14">
-        <v>27.580000000000013</v>
+        <v>115.36000000000001</v>
       </c>
       <c r="J7" s="8">
-        <v>53332481</v>
+        <v>38562597</v>
       </c>
       <c r="K7" s="8">
         <v>31</v>
       </c>
       <c r="L7" s="8">
-        <v>9132759492</v>
+        <v>9133690614</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18">
-      <c r="A8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1291892117</v>
+      <c r="A8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1209187089</v>
       </c>
       <c r="C8" s="6">
-        <v>110212190</v>
+        <v>110212803</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4">
-        <v>3.86</v>
+        <v>20</v>
       </c>
       <c r="G8" s="10">
-        <v>134.63999999999999</v>
+        <v>1090</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14">
-        <v>115.36000000000001</v>
+        <v>915</v>
       </c>
       <c r="J8" s="8">
-        <v>38562597</v>
+        <v>53602290</v>
       </c>
       <c r="K8" s="8">
         <v>31</v>
       </c>
       <c r="L8" s="8">
-        <v>9133690614</v>
+        <v>9133228994</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18">
-      <c r="A9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="32">
-        <v>1209187089</v>
+      <c r="A9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="24">
+        <v>6219712269</v>
       </c>
       <c r="C9" s="6">
-        <v>110212803</v>
+        <v>110212679</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="G9" s="10">
-        <v>1090</v>
+        <v>523.20000000000005</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14">
-        <v>915</v>
+        <v>436.79999999999995</v>
       </c>
       <c r="J9" s="8">
-        <v>53602290</v>
+        <v>51554248</v>
       </c>
       <c r="K9" s="8">
         <v>31</v>
       </c>
       <c r="L9" s="8">
-        <v>9133228994</v>
+        <v>9132728909</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18">
-      <c r="A10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="32">
-        <v>6219712269</v>
+      <c r="A10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="24">
+        <v>6219568230</v>
       </c>
       <c r="C10" s="6">
-        <v>110212679</v>
+        <v>110210902</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
@@ -1308,1134 +1247,1084 @@
         <v>5</v>
       </c>
       <c r="F10" s="4">
-        <v>9.6</v>
+        <v>19.8</v>
       </c>
       <c r="G10" s="10">
-        <v>523.20000000000005</v>
+        <v>1079.0999999999999</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14">
-        <v>436.79999999999995</v>
+        <v>3007.9</v>
       </c>
       <c r="J10" s="8">
-        <v>51554248</v>
+        <v>5755433</v>
       </c>
       <c r="K10" s="8">
         <v>31</v>
       </c>
       <c r="L10" s="8">
-        <v>9132728909</v>
+        <v>9137183370</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18">
-      <c r="A11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="32">
-        <v>6219568230</v>
+      <c r="A11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1209120781</v>
       </c>
       <c r="C11" s="6">
-        <v>110210902</v>
+        <v>110212786</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4">
-        <v>19.8</v>
+        <v>1</v>
       </c>
       <c r="G11" s="10">
-        <v>1079.0999999999999</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14">
-        <v>3007.9</v>
+        <v>59.150000000000006</v>
       </c>
       <c r="J11" s="8">
-        <v>5755433</v>
+        <v>53660784</v>
       </c>
       <c r="K11" s="8">
         <v>31</v>
       </c>
       <c r="L11" s="8">
-        <v>9137183370</v>
+        <v>9132229475</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18">
-      <c r="A12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="32">
-        <v>1209120781</v>
+      <c r="A12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="24">
+        <v>5659842577</v>
       </c>
       <c r="C12" s="6">
-        <v>110212786</v>
+        <v>110212869</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G12" s="10">
-        <v>70.849999999999994</v>
+        <v>13625</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14">
-        <v>59.150000000000006</v>
+        <v>1276</v>
       </c>
       <c r="J12" s="8">
-        <v>53660784</v>
+        <v>46483483</v>
       </c>
       <c r="K12" s="8">
         <v>31</v>
       </c>
       <c r="L12" s="8">
-        <v>9132229475</v>
+        <v>9133231243</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18">
-      <c r="A13" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="32">
-        <v>5659842577</v>
+      <c r="A13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="24">
+        <v>1239814836</v>
       </c>
       <c r="C13" s="6">
-        <v>110212869</v>
+        <v>110212447</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="G13" s="10">
-        <v>13625</v>
+        <v>1793</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14">
-        <v>1276</v>
+        <v>6729</v>
       </c>
       <c r="J13" s="8">
-        <v>46483483</v>
+        <v>54348028</v>
       </c>
       <c r="K13" s="8">
         <v>31</v>
       </c>
       <c r="L13" s="8">
-        <v>9133231243</v>
+        <v>9192911481</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18">
-      <c r="A14" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="32">
-        <v>1239814836</v>
+      <c r="A14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2293631788</v>
       </c>
       <c r="C14" s="6">
-        <v>110212447</v>
+        <v>110212651</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="4">
-        <v>35</v>
+        <v>1.5</v>
       </c>
       <c r="G14" s="10">
-        <v>1793</v>
+        <v>81.75</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14">
-        <v>6729</v>
+        <v>140.25</v>
       </c>
       <c r="J14" s="8">
-        <v>54348028</v>
+        <v>53660000</v>
       </c>
       <c r="K14" s="8">
         <v>31</v>
       </c>
       <c r="L14" s="8">
-        <v>9192911481</v>
+        <v>9138888710</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18">
-      <c r="A15" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="32">
-        <v>2293631788</v>
+      <c r="A15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="24">
+        <v>5129830598</v>
       </c>
       <c r="C15" s="6">
-        <v>110212651</v>
+        <v>110212647</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="G15" s="10">
-        <v>81.75</v>
+        <v>708.5</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14">
-        <v>140.25</v>
+        <v>885.5</v>
       </c>
       <c r="J15" s="8">
-        <v>53660000</v>
+        <v>53334695</v>
       </c>
       <c r="K15" s="8">
         <v>31</v>
       </c>
       <c r="L15" s="8">
-        <v>9138888710</v>
+        <v>9132211405</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18">
-      <c r="A16" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="32">
-        <v>5129830598</v>
+      <c r="A16" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="24">
+        <v>1209586355</v>
       </c>
       <c r="C16" s="6">
-        <v>110212647</v>
+        <v>110211820</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="4">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="G16" s="10">
-        <v>708.5</v>
+        <v>148.79</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14">
-        <v>885.5</v>
+        <v>125.22</v>
       </c>
       <c r="J16" s="8">
-        <v>53334695</v>
+        <v>53662395</v>
       </c>
       <c r="K16" s="8">
         <v>31</v>
       </c>
       <c r="L16" s="8">
-        <v>9132211405</v>
+        <v>9133215125</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18">
-      <c r="A17" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="32">
-        <v>1209586355</v>
+      <c r="A17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="24">
+        <v>6209491421</v>
       </c>
       <c r="C17" s="6">
-        <v>110211820</v>
+        <v>110212748</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="4">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G17" s="10">
-        <v>148.79</v>
+        <v>184.21</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14">
-        <v>125.22</v>
+        <v>156.79</v>
       </c>
       <c r="J17" s="8">
-        <v>53662395</v>
+        <v>2483018</v>
       </c>
       <c r="K17" s="8">
         <v>31</v>
       </c>
       <c r="L17" s="8">
-        <v>9133215125</v>
+        <v>9131343710</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18">
-      <c r="A18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="32">
-        <v>6209491421</v>
+      <c r="A18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="24">
+        <v>5129633857</v>
       </c>
       <c r="C18" s="6">
-        <v>110212748</v>
+        <v>110212688</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="4">
-        <v>2.6</v>
+        <v>0.95</v>
       </c>
       <c r="G18" s="10">
-        <v>184.21</v>
+        <v>67.31</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14">
-        <v>156.79</v>
+        <v>101.69</v>
       </c>
       <c r="J18" s="8">
-        <v>2483018</v>
+        <v>53334921</v>
       </c>
       <c r="K18" s="8">
         <v>31</v>
       </c>
       <c r="L18" s="8">
-        <v>9131343710</v>
+        <v>9132224538</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18">
-      <c r="A19" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="32">
-        <v>5129633857</v>
+      <c r="A19" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="24">
+        <v>2293831280</v>
       </c>
       <c r="C19" s="6">
-        <v>110212688</v>
+        <v>110212740</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="4">
-        <v>0.95</v>
+        <v>1.56</v>
       </c>
       <c r="G19" s="10">
-        <v>67.31</v>
+        <v>110.53</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14">
-        <v>101.69</v>
-      </c>
-      <c r="J19" s="8">
-        <v>53334921</v>
-      </c>
-      <c r="K19" s="8">
-        <v>31</v>
-      </c>
+        <v>91.47</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="8">
-        <v>9132224538</v>
+        <v>9137042514</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18">
-      <c r="A20" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="32">
-        <v>2293831280</v>
+      <c r="A20" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="24">
+        <v>5659530079</v>
       </c>
       <c r="C20" s="6">
-        <v>110212740</v>
+        <v>110212412</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="4">
-        <v>1.56</v>
+        <v>5.5</v>
       </c>
       <c r="G20" s="10">
-        <v>110.53</v>
+        <v>389.67500000000001</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14">
-        <v>91.47</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+        <v>219.32499999999999</v>
+      </c>
+      <c r="J20" s="8">
+        <v>35681200</v>
+      </c>
+      <c r="K20" s="8">
+        <v>31</v>
+      </c>
       <c r="L20" s="8">
-        <v>9137042514</v>
+        <v>9138689838</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18">
-      <c r="A21" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="32">
-        <v>5659530079</v>
+      <c r="A21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="24">
+        <v>1159615470</v>
       </c>
       <c r="C21" s="6">
-        <v>110212412</v>
+        <v>110212882</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F21" s="4">
-        <v>5.5</v>
+        <v>48</v>
       </c>
       <c r="G21" s="10">
-        <v>389.67500000000001</v>
+        <v>4185</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14">
-        <v>219.32499999999999</v>
+        <v>1251</v>
       </c>
       <c r="J21" s="8">
-        <v>35681200</v>
+        <v>57226099</v>
       </c>
       <c r="K21" s="8">
         <v>31</v>
       </c>
       <c r="L21" s="8">
-        <v>9138689838</v>
+        <v>9139739234</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18">
-      <c r="A22" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="32">
-        <v>1159615470</v>
+      <c r="A22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="24">
+        <v>5649599823</v>
       </c>
       <c r="C22" s="6">
-        <v>110212882</v>
+        <v>110211971</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G22" s="10">
-        <v>4185</v>
+        <v>1364</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14">
-        <v>1251</v>
+        <v>715</v>
       </c>
       <c r="J22" s="8">
-        <v>57226099</v>
+        <v>46640082</v>
       </c>
       <c r="K22" s="8">
         <v>31</v>
       </c>
       <c r="L22" s="8">
-        <v>9139739234</v>
+        <v>9137119437</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18">
-      <c r="A23" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="32">
-        <v>5649599823</v>
+      <c r="A23" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="24">
+        <v>1111049361</v>
       </c>
       <c r="C23" s="6">
-        <v>110211971</v>
+        <v>110212874</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G23" s="10">
-        <v>1364</v>
+        <v>2250</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="J23" s="8">
-        <v>46640082</v>
+        <v>37562743</v>
       </c>
       <c r="K23" s="8">
         <v>31</v>
       </c>
       <c r="L23" s="8">
-        <v>9137119437</v>
+        <v>9131767783</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18">
-      <c r="A24" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="32">
-        <v>1111049361</v>
+      <c r="A24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="6">
-        <v>110212874</v>
+        <v>110210474</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F24" s="4">
-        <v>45</v>
+        <v>72.7</v>
       </c>
       <c r="G24" s="10">
-        <v>2250</v>
+        <v>6339</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14">
-        <v>685</v>
+        <v>3050</v>
       </c>
       <c r="J24" s="8">
-        <v>37562743</v>
+        <v>45224030</v>
       </c>
       <c r="K24" s="8">
         <v>31</v>
       </c>
       <c r="L24" s="8">
-        <v>9131767783</v>
+        <v>9133120446</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18">
-      <c r="A25" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>31</v>
+      <c r="A25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="24">
+        <v>1159365318</v>
       </c>
       <c r="C25" s="6">
-        <v>110210474</v>
+        <v>110212804</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4">
-        <v>72.7</v>
+        <v>75</v>
       </c>
       <c r="G25" s="10">
-        <v>6339</v>
+        <v>4087</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14">
-        <v>3050</v>
+        <v>3649</v>
       </c>
       <c r="J25" s="8">
-        <v>45224030</v>
+        <v>57226099</v>
       </c>
       <c r="K25" s="8">
         <v>31</v>
       </c>
       <c r="L25" s="8">
-        <v>9133120446</v>
+        <v>9136911214</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18">
-      <c r="A26" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="32">
-        <v>1159365318</v>
+      <c r="A26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="24">
+        <v>1129543161</v>
       </c>
       <c r="C26" s="6">
-        <v>110212804</v>
+        <v>110212623</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G26" s="10">
-        <v>4087</v>
+        <v>5450</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14">
-        <v>3649</v>
+        <v>1055</v>
       </c>
       <c r="J26" s="8">
-        <v>57226099</v>
+        <v>57590405</v>
       </c>
       <c r="K26" s="8">
         <v>31</v>
       </c>
       <c r="L26" s="8">
-        <v>9136911214</v>
+        <v>9103113869</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18">
-      <c r="A27" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="32">
-        <v>1129543161</v>
+      <c r="A27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="24">
+        <v>5659281044</v>
       </c>
       <c r="C27" s="6">
-        <v>110212623</v>
+        <v>110212837</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G27" s="10">
-        <v>5450</v>
+        <v>5232</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14">
-        <v>1055</v>
-      </c>
-      <c r="J27" s="8">
-        <v>57590405</v>
-      </c>
-      <c r="K27" s="8">
-        <v>31</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="8">
-        <v>9103113869</v>
+        <v>9131147696</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18">
-      <c r="A28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="32">
-        <v>5659281044</v>
+      <c r="A28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="24">
+        <v>1159671532</v>
       </c>
       <c r="C28" s="6">
-        <v>110212837</v>
+        <v>110212813</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F28" s="4">
-        <v>96</v>
+        <v>1.3</v>
       </c>
       <c r="G28" s="10">
-        <v>5232</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
-        <v>1037</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+        <v>459.1</v>
+      </c>
+      <c r="J28" s="8">
+        <v>57223484</v>
+      </c>
+      <c r="K28" s="8">
+        <v>31</v>
+      </c>
       <c r="L28" s="8">
-        <v>9131147696</v>
+        <v>9131723149</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18">
-      <c r="A29" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="32">
-        <v>1159671532</v>
+      <c r="A29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="24">
+        <v>1229574409</v>
       </c>
       <c r="C29" s="6">
-        <v>110212813</v>
+        <v>110212858</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4">
-        <v>1.3</v>
+        <v>97</v>
       </c>
       <c r="G29" s="10">
-        <v>70.849999999999994</v>
+        <v>9515</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
-        <v>459.1</v>
+        <v>1397</v>
       </c>
       <c r="J29" s="8">
-        <v>57223484</v>
+        <v>32354256</v>
       </c>
       <c r="K29" s="8">
         <v>31</v>
       </c>
       <c r="L29" s="8">
-        <v>9131723149</v>
+        <v>913111325</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18">
-      <c r="A30" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="32">
-        <v>1229574409</v>
+      <c r="A30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="24">
+        <v>5409791010</v>
       </c>
       <c r="C30" s="6">
-        <v>110212858</v>
+        <v>110212776</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="G30" s="10">
-        <v>9515</v>
+        <v>2302</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14">
-        <v>1397</v>
+        <v>1651</v>
       </c>
       <c r="J30" s="8">
-        <v>32354256</v>
+        <v>46342092</v>
       </c>
       <c r="K30" s="8">
         <v>31</v>
       </c>
       <c r="L30" s="8">
-        <v>913111325</v>
+        <v>9132234632</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18">
-      <c r="A31" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="32">
-        <v>5409791010</v>
+      <c r="A31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="24">
+        <v>3050966785</v>
       </c>
       <c r="C31" s="6">
-        <v>110212776</v>
+        <v>110212859</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="4">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G31" s="10">
-        <v>2302</v>
+        <v>9483</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14">
-        <v>1651</v>
+        <v>1632</v>
       </c>
       <c r="J31" s="8">
-        <v>46342092</v>
+        <v>57324548</v>
       </c>
       <c r="K31" s="8">
         <v>31</v>
       </c>
       <c r="L31" s="8">
-        <v>9132234632</v>
+        <v>9131913418</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18">
-      <c r="A32" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="32">
-        <v>3050966785</v>
+      <c r="A32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="24">
+        <v>5759769881</v>
       </c>
       <c r="C32" s="6">
-        <v>110212859</v>
+        <v>110212891</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="4">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="G32" s="10">
-        <v>9483</v>
+        <v>2530</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14">
-        <v>1632</v>
+        <v>1070</v>
       </c>
       <c r="J32" s="8">
-        <v>57324548</v>
+        <v>5772004</v>
       </c>
       <c r="K32" s="8">
         <v>31</v>
       </c>
       <c r="L32" s="8">
-        <v>9131913418</v>
+        <v>9139719737</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18">
-      <c r="A33" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="32">
-        <v>5759769881</v>
+      <c r="A33" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="24">
+        <v>1110949359</v>
       </c>
       <c r="C33" s="6">
-        <v>110212891</v>
+        <v>110212737</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F33" s="4">
-        <v>36</v>
+        <v>2.4</v>
       </c>
       <c r="G33" s="10">
-        <v>2530</v>
+        <v>150</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14">
-        <v>1070</v>
+        <v>90</v>
       </c>
       <c r="J33" s="8">
-        <v>5772004</v>
+        <v>37503658</v>
       </c>
       <c r="K33" s="8">
         <v>31</v>
       </c>
       <c r="L33" s="8">
-        <v>9139719737</v>
+        <v>9134057146</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18">
-      <c r="A34" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="32">
-        <v>1110949359</v>
+      <c r="A34" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="24">
+        <v>4171355206</v>
       </c>
       <c r="C34" s="6">
-        <v>110212737</v>
+        <v>110212760</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F34" s="4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G34" s="10">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="J34" s="8">
-        <v>37503658</v>
+        <v>58732060</v>
       </c>
       <c r="K34" s="8">
         <v>31</v>
       </c>
       <c r="L34" s="8">
-        <v>9134057146</v>
+        <v>9162377120</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18">
-      <c r="A35" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="32">
-        <v>4171355206</v>
+      <c r="A35" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="24">
+        <v>12197806442</v>
       </c>
       <c r="C35" s="6">
-        <v>110212760</v>
+        <v>110212898</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" s="4">
-        <v>2</v>
+        <v>17.14</v>
       </c>
       <c r="G35" s="10">
-        <v>109</v>
+        <v>1214.3699999999999</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14">
-        <v>113</v>
+        <v>760.63000000000011</v>
       </c>
       <c r="J35" s="8">
-        <v>58732060</v>
+        <v>57440351</v>
       </c>
       <c r="K35" s="8">
         <v>31</v>
       </c>
       <c r="L35" s="8">
-        <v>9162377120</v>
+        <v>9131711219</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="18">
-      <c r="A36" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="32">
-        <v>12197806442</v>
+      <c r="A36" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="24">
+        <v>1110983980</v>
       </c>
       <c r="C36" s="6">
-        <v>110212898</v>
+        <v>110212825</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4">
-        <v>17.14</v>
+        <v>32.1</v>
       </c>
       <c r="G36" s="10">
-        <v>1214.3699999999999</v>
+        <v>930</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14">
-        <v>760.63000000000011</v>
-      </c>
-      <c r="J36" s="8">
-        <v>57440351</v>
-      </c>
-      <c r="K36" s="8">
-        <v>31</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="8">
-        <v>9131711219</v>
+        <v>9136011352</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18">
-      <c r="A37" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="32">
-        <v>1110983980</v>
+      <c r="A37" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="24">
+        <v>5659760732</v>
       </c>
       <c r="C37" s="6">
-        <v>110212825</v>
+        <v>110212732</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="4">
-        <v>32.1</v>
+        <v>7</v>
       </c>
       <c r="G37" s="10">
-        <v>930</v>
+        <v>244.16</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14">
-        <v>170</v>
-      </c>
-      <c r="J37" s="8"/>
+        <v>184.84</v>
+      </c>
+      <c r="J37" s="8">
+        <v>46482406</v>
+      </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8">
-        <v>9136011352</v>
+        <v>9133069018</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18">
-      <c r="A38" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="32">
-        <v>5659760732</v>
+      <c r="A38" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="24">
+        <v>1209891670</v>
       </c>
       <c r="C38" s="6">
-        <v>110212732</v>
+        <v>110212802</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F38" s="4">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="G38" s="10">
-        <v>244.16</v>
+        <v>259.42</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14">
-        <v>184.84</v>
+        <v>228</v>
       </c>
       <c r="J38" s="8">
-        <v>46482406</v>
-      </c>
-      <c r="K38" s="8"/>
+        <v>53666233</v>
+      </c>
+      <c r="K38" s="8">
+        <v>31</v>
+      </c>
       <c r="L38" s="8">
-        <v>9133069018</v>
+        <v>9136878066</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18">
-      <c r="A39" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="32">
-        <v>1209891670</v>
+      <c r="A39" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="24">
+        <v>5129648897</v>
       </c>
       <c r="C39" s="6">
-        <v>110212802</v>
+        <v>110212669</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F39" s="4">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="G39" s="10">
-        <v>259.42</v>
+        <v>49.05</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14">
-        <v>228</v>
-      </c>
-      <c r="J39" s="8">
-        <v>53666233</v>
-      </c>
-      <c r="K39" s="8">
-        <v>31</v>
-      </c>
+        <v>80.95</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="8">
-        <v>9136878066</v>
+        <v>9132755342</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18">
-      <c r="A40" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="32">
-        <v>5129648897</v>
+      <c r="A40" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="24">
+        <v>6219791737</v>
       </c>
       <c r="C40" s="6">
-        <v>110212669</v>
+        <v>110212698</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F40" s="4">
-        <v>0.9</v>
+        <v>66</v>
       </c>
       <c r="G40" s="10">
-        <v>49.05</v>
+        <v>5755</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14">
-        <v>80.95</v>
+        <v>1791</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="8">
-        <v>9132755342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="18">
-      <c r="A41" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="32">
-        <v>6219791737</v>
-      </c>
-      <c r="C41" s="6">
-        <v>110212698</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="4">
-        <v>66</v>
-      </c>
-      <c r="G41" s="10">
-        <v>5755</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14">
-        <v>1791</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8" t="s">
+      <c r="L40" s="8" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
